--- a/fhir/docs/StructureDefinition-nhsnotify-letter-documentreference.xlsx
+++ b/fhir/docs/StructureDefinition-nhsnotify-letter-documentreference.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://nhsdigital.github.io/nhs-notify-standards/fhir/StructureDefinition/nhsnotify-letter-documentreference</t>
+    <t>https://nhsdigital.github.io/nhs-notify-standards/fhir/docs/StructureDefinition/nhsnotify-letter-documentreference</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T10:31:22+00:00</t>
+    <t>2025-09-30T11:01:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
